--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,202 +46,220 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>guess</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>half</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>sound</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>could</t>
+    <t>used</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>two</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>like</t>
   </si>
   <si>
     <t>even</t>
@@ -250,7 +268,7 @@
     <t>much</t>
   </si>
   <si>
-    <t>like</t>
+    <t>made</t>
   </si>
   <si>
     <t>one</t>
@@ -259,133 +277,136 @@
     <t>toy</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>really</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>love</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>elf</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>birthday</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>ages</t>
   </si>
   <si>
+    <t>lots</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
     <t>playing</t>
   </si>
   <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>cute</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
     <t>well</t>
+  </si>
+  <si>
+    <t>grandson</t>
   </si>
   <si>
     <t>year</t>
@@ -755,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -824,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -842,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K3">
-        <v>0.9259259259259259</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -866,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -895,16 +916,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K4">
-        <v>0.8928571428571429</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -916,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -924,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -942,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -966,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -974,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -992,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1016,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1024,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7605633802816901</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1042,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7">
-        <v>0.8307692307692308</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1066,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1074,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1092,31 +1113,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>53</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8">
-        <v>0.796875</v>
-      </c>
-      <c r="L8">
-        <v>51</v>
-      </c>
-      <c r="M8">
-        <v>51</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1124,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7204301075268817</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1142,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.703125</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1166,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1174,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7083333333333334</v>
+        <v>0.671875</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1192,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K10">
-        <v>0.660377358490566</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1216,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1224,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6959459459459459</v>
+        <v>0.6699029126213593</v>
       </c>
       <c r="C11">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D11">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1242,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>0.625</v>
+        <v>0.5781922525107605</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>403</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>403</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1266,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1295,16 +1316,16 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>0.6086956521739131</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1316,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1324,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6545454545454545</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1342,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K13">
-        <v>0.5689655172413793</v>
+        <v>0.533195020746888</v>
       </c>
       <c r="L13">
-        <v>396</v>
+        <v>257</v>
       </c>
       <c r="M13">
-        <v>397</v>
+        <v>257</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1363,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>300</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1374,13 +1395,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6428571428571429</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1392,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0.4745901639344262</v>
       </c>
       <c r="L14">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="M14">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1416,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>241</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1424,13 +1445,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6218487394957983</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1442,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K15">
-        <v>0.4688524590163934</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L15">
-        <v>572</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>572</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1466,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>648</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1474,13 +1495,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6213592233009708</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1492,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K16">
         <v>0.3795180722891566</v>
@@ -1524,13 +1545,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1542,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K17">
         <v>0.3792048929663608</v>
@@ -1574,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5101449275362319</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C18">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="D18">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1592,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K18">
-        <v>0.3666666666666666</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1616,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1624,13 +1645,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1642,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K19">
-        <v>0.3584905660377358</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1666,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1674,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4857142857142857</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1692,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K20">
-        <v>0.3544973544973545</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L20">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1716,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1724,13 +1745,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4698795180722892</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1742,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K21">
-        <v>0.3125</v>
+        <v>0.265625</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1766,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1774,13 +1795,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1792,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K22">
-        <v>0.3090909090909091</v>
+        <v>0.232</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1816,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1824,13 +1845,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.453125</v>
+        <v>0.421875</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1842,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K23">
-        <v>0.265625</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1866,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1874,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4473684210526316</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1892,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K24">
-        <v>0.2248995983935743</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1916,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>193</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1924,13 +1945,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4444444444444444</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1942,31 +1963,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K25">
-        <v>0.2105263157894737</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1974,13 +1995,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4251968503937008</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1992,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K26">
-        <v>0.208</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2016,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2024,13 +2045,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4126984126984127</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2042,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K27">
-        <v>0.1989247311827957</v>
+        <v>0.1726907630522088</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2066,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2074,13 +2095,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.40625</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C28">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2092,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K28">
-        <v>0.1984126984126984</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2116,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2124,13 +2145,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3933649289099526</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C29">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2142,31 +2163,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K29">
-        <v>0.1831726555652936</v>
+        <v>0.1640350877192983</v>
       </c>
       <c r="L29">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M29">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>932</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2174,13 +2195,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3888888888888889</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2192,31 +2213,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K30">
-        <v>0.1818181818181818</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2224,13 +2245,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3818181818181818</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2242,31 +2263,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K31">
-        <v>0.1794871794871795</v>
+        <v>0.1239669421487603</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2274,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3809523809523809</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2292,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K32">
-        <v>0.1363636363636364</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2316,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2324,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3673469387755102</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2342,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K33">
-        <v>0.1122994652406417</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2366,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2374,13 +2395,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2392,31 +2413,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K34">
-        <v>0.1089385474860335</v>
+        <v>0.1125569290826285</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>319</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2424,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3366336633663367</v>
+        <v>0.328125</v>
       </c>
       <c r="C35">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2442,31 +2463,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K35">
-        <v>0.09616634178037686</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L35">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="N35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1391</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2474,7 +2495,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3333333333333333</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C36">
         <v>18</v>
@@ -2492,31 +2513,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K36">
-        <v>0.09433962264150944</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>144</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2524,13 +2545,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3283582089552239</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2542,31 +2563,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K37">
-        <v>0.08024691358024691</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>298</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2574,49 +2595,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2840909090909091</v>
+        <v>0.3217821782178218</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E38">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K38">
-        <v>0.07003891050583658</v>
+        <v>0.06920415224913495</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2624,13 +2645,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2622950819672131</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2642,31 +2663,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K39">
-        <v>0.06228373702422145</v>
+        <v>0.06614785992217899</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>271</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2674,13 +2695,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2608695652173913</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2692,31 +2713,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K40">
-        <v>0.053475935828877</v>
+        <v>0.064</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2724,13 +2745,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2586206896551724</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2742,31 +2763,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K41">
-        <v>0.03846153846153846</v>
+        <v>0.05370843989769821</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O41">
-        <v>0.29</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2774,13 +2795,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.25</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2792,31 +2813,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K42">
-        <v>0.03012048192771084</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N42">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="O42">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>483</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2824,13 +2845,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2474226804123711</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C43">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2842,31 +2863,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K43">
-        <v>0.03008849557522124</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>548</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2874,13 +2895,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2393162393162393</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2892,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K44">
-        <v>0.02425106990014265</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M44">
         <v>21</v>
       </c>
       <c r="N44">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="O44">
-        <v>0.1899999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>684</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2924,13 +2945,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.22</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2942,7 +2963,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>156</v>
+        <v>89</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K45">
+        <v>0.02698863636363636</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>0.95</v>
+      </c>
+      <c r="O45">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>685</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2950,25 +2995,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2020802377414562</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C46">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>537</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2976,13 +3021,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1993670886075949</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C47">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2994,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>253</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3002,13 +3047,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1884057971014493</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C48">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3020,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3028,13 +3073,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1836734693877551</v>
+        <v>0.21</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3046,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>80</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3054,13 +3099,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1835443037974684</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C50">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3072,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3080,25 +3125,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1786743515850144</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C51">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="D51">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="E51">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>285</v>
+        <v>546</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3106,25 +3151,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1752577319587629</v>
+        <v>0.1873198847262248</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>80</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3132,25 +3177,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1714285714285714</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3158,25 +3203,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1682242990654206</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3184,13 +3229,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1648351648351648</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3202,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3210,13 +3255,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1610169491525424</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3228,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3236,13 +3281,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1592356687898089</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3254,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>132</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3262,13 +3307,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1519823788546255</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C58">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D58">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3280,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>385</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3288,13 +3333,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1475409836065574</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3306,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3314,25 +3359,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1428571428571428</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3340,25 +3385,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1308900523560209</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3366,25 +3411,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.126984126984127</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3392,13 +3437,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1214953271028037</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3410,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3418,25 +3463,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1133603238866397</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D64">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E64">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>219</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3444,25 +3489,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1063829787234043</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3470,25 +3515,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1056603773584906</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E66">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3496,25 +3541,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1041666666666667</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>172</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3522,25 +3567,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08928571428571429</v>
+        <v>0.109375</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D68">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E68">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>408</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3548,13 +3593,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08493150684931507</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3566,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>334</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3574,25 +3619,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.07909604519774012</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="C70">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>326</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3600,25 +3645,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07857142857142857</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="C71">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>258</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3626,25 +3671,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07511737089201878</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C72">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D72">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E72">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F72">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3652,25 +3697,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.06942148760330578</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C73">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D73">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E73">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>563</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3678,25 +3723,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.05859872611464968</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C74">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D74">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E74">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>739</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3704,25 +3749,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.05255023183925812</v>
+        <v>0.07945205479452055</v>
       </c>
       <c r="C75">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D75">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E75">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>613</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3730,25 +3775,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.04761904761904762</v>
+        <v>0.07590759075907591</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E76">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="F76">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>300</v>
+        <v>560</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3756,25 +3801,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.03990610328638498</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E77">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="F77">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>409</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3782,25 +3827,181 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03406813627254509</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D78">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E78">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="F78">
-        <v>0.77</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>482</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="C79">
+        <v>18</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>0.1</v>
+      </c>
+      <c r="F79">
+        <v>0.9</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.04865556978233035</v>
+      </c>
+      <c r="C80">
+        <v>38</v>
+      </c>
+      <c r="D80">
+        <v>51</v>
+      </c>
+      <c r="E80">
+        <v>0.25</v>
+      </c>
+      <c r="F80">
+        <v>0.75</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.04776579352850539</v>
+      </c>
+      <c r="C81">
+        <v>31</v>
+      </c>
+      <c r="D81">
+        <v>37</v>
+      </c>
+      <c r="E81">
+        <v>0.16</v>
+      </c>
+      <c r="F81">
+        <v>0.84</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.03218884120171674</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>0.17</v>
+      </c>
+      <c r="F82">
+        <v>0.83</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.032</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <v>0.2</v>
+      </c>
+      <c r="F83">
+        <v>0.8</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.02196193265007321</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>24</v>
+      </c>
+      <c r="E84">
+        <v>0.38</v>
+      </c>
+      <c r="F84">
+        <v>0.62</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
